--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H2">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I2">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J2">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N2">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O2">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P2">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q2">
-        <v>1444.825335672727</v>
+        <v>145.922733028485</v>
       </c>
       <c r="R2">
-        <v>8668.95201403636</v>
+        <v>583.6909321139399</v>
       </c>
       <c r="S2">
-        <v>0.2049120377410703</v>
+        <v>0.02220011106712856</v>
       </c>
       <c r="T2">
-        <v>0.1623947082123203</v>
+        <v>0.01263622546928463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H3">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I3">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J3">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P3">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q3">
-        <v>367.8620000336289</v>
+        <v>38.284506744918</v>
       </c>
       <c r="R3">
-        <v>3310.758000302661</v>
+        <v>229.707040469508</v>
       </c>
       <c r="S3">
-        <v>0.05217194782876584</v>
+        <v>0.005824454382453915</v>
       </c>
       <c r="T3">
-        <v>0.06202013560003778</v>
+        <v>0.004972888553780346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H4">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I4">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J4">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N4">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O4">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P4">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q4">
-        <v>1104.508549522337</v>
+        <v>78.589146056988</v>
       </c>
       <c r="R4">
-        <v>9940.576945701032</v>
+        <v>471.5348763419281</v>
       </c>
       <c r="S4">
-        <v>0.1566466838565476</v>
+        <v>0.01195624379372985</v>
       </c>
       <c r="T4">
-        <v>0.186215945127559</v>
+        <v>0.01020817814062723</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H5">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I5">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J5">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N5">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O5">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P5">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q5">
-        <v>259.471644575355</v>
+        <v>38.925060269508</v>
       </c>
       <c r="R5">
-        <v>1556.82986745213</v>
+        <v>155.700241078032</v>
       </c>
       <c r="S5">
-        <v>0.03679950933391317</v>
+        <v>0.005921905678048569</v>
       </c>
       <c r="T5">
-        <v>0.02916395564905172</v>
+        <v>0.003370727972008181</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H6">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I6">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J6">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N6">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O6">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P6">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q6">
-        <v>1117.294010466171</v>
+        <v>26.782642443291</v>
       </c>
       <c r="R6">
-        <v>10055.64609419554</v>
+        <v>160.695854659746</v>
       </c>
       <c r="S6">
-        <v>0.1584599790630856</v>
+        <v>0.004074605954619741</v>
       </c>
       <c r="T6">
-        <v>0.188371525267321</v>
+        <v>0.003478877158680206</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H7">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I7">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J7">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N7">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O7">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P7">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q7">
-        <v>956.4672069137567</v>
+        <v>133.429970957808</v>
       </c>
       <c r="R7">
-        <v>8608.204862223811</v>
+        <v>800.5798257468481</v>
       </c>
       <c r="S7">
-        <v>0.1356507527672554</v>
+        <v>0.02029951134734329</v>
       </c>
       <c r="T7">
-        <v>0.1612567372122092</v>
+        <v>0.01733161614770985</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H8">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I8">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J8">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N8">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O8">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P8">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q8">
-        <v>12.58638895652533</v>
+        <v>1402.118846140216</v>
       </c>
       <c r="R8">
-        <v>75.51833373915198</v>
+        <v>8412.713076841297</v>
       </c>
       <c r="S8">
-        <v>0.00178506186540704</v>
+        <v>0.2133128503531436</v>
       </c>
       <c r="T8">
-        <v>0.001414678239352724</v>
+        <v>0.1821253910222038</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H9">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I9">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J9">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P9">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q9">
-        <v>3.204577121145777</v>
+        <v>367.8620000336289</v>
       </c>
       <c r="R9">
-        <v>28.841194090312</v>
+        <v>3310.75800030266</v>
       </c>
       <c r="S9">
-        <v>0.0004544884504580256</v>
+        <v>0.05596507883749988</v>
       </c>
       <c r="T9">
-        <v>0.000540279527583906</v>
+        <v>0.07167403546008112</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H10">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I10">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J10">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N10">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O10">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P10">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q10">
-        <v>9.621768020577333</v>
+        <v>755.134724395951</v>
       </c>
       <c r="R10">
-        <v>86.595912185196</v>
+        <v>6796.21251956356</v>
       </c>
       <c r="S10">
-        <v>0.00136460514851808</v>
+        <v>0.1148832289823079</v>
       </c>
       <c r="T10">
-        <v>0.001622193532612123</v>
+        <v>0.1471300460731094</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H11">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I11">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J11">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N11">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O11">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P11">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q11">
-        <v>2.260350065286</v>
+        <v>374.0168475351066</v>
       </c>
       <c r="R11">
-        <v>13.562100391716</v>
+        <v>2244.10108521064</v>
       </c>
       <c r="S11">
-        <v>0.0003205736544412526</v>
+        <v>0.05690145314531505</v>
       </c>
       <c r="T11">
-        <v>0.000254057622223871</v>
+        <v>0.04858216177162151</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H12">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I12">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J12">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N12">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O12">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P12">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q12">
-        <v>9.733146732214221</v>
+        <v>257.3447395056856</v>
       </c>
       <c r="R12">
-        <v>87.59832058992799</v>
+        <v>2316.10265555117</v>
       </c>
       <c r="S12">
-        <v>0.00138040140997543</v>
+        <v>0.03915141719866402</v>
       </c>
       <c r="T12">
-        <v>0.001640971560236737</v>
+        <v>0.05014091149156386</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H13">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I13">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J13">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N13">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O13">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P13">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q13">
-        <v>8.332127069721333</v>
+        <v>1282.080406781884</v>
       </c>
       <c r="R13">
-        <v>74.989143627492</v>
+        <v>11538.72366103696</v>
       </c>
       <c r="S13">
-        <v>0.001181702102267724</v>
+        <v>0.1950506739891665</v>
       </c>
       <c r="T13">
-        <v>0.001404764967986967</v>
+        <v>0.2497998611706551</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H14">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I14">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J14">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N14">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O14">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P14">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q14">
-        <v>330.205537833779</v>
+        <v>31.99493264214</v>
       </c>
       <c r="R14">
-        <v>1320.822151335116</v>
+        <v>191.96959585284</v>
       </c>
       <c r="S14">
-        <v>0.04683132829990212</v>
+        <v>0.004867583299047393</v>
       </c>
       <c r="T14">
-        <v>0.02474284406225065</v>
+        <v>0.004155917049556647</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H15">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I15">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J15">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P15">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q15">
-        <v>84.07249414210767</v>
+        <v>8.394238437832001</v>
       </c>
       <c r="R15">
-        <v>504.434964852646</v>
+        <v>75.54814594048801</v>
       </c>
       <c r="S15">
-        <v>0.01192356312371293</v>
+        <v>0.001277066443152849</v>
       </c>
       <c r="T15">
-        <v>0.009449535399054054</v>
+        <v>0.00163552893041017</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H16">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I16">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J16">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N16">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O16">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P16">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q16">
-        <v>252.4283251630655</v>
+        <v>17.231409954512</v>
       </c>
       <c r="R16">
-        <v>1514.569950978393</v>
+        <v>155.082689590608</v>
       </c>
       <c r="S16">
-        <v>0.03580059209623788</v>
+        <v>0.002621518984014075</v>
       </c>
       <c r="T16">
-        <v>0.02837230438674024</v>
+        <v>0.003357358705150258</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H17">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I17">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J17">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N17">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O17">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P17">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q17">
-        <v>59.30057553270075</v>
+        <v>8.534685826992</v>
       </c>
       <c r="R17">
-        <v>237.202302130803</v>
+        <v>51.20811496195201</v>
       </c>
       <c r="S17">
-        <v>0.00841029117610686</v>
+        <v>0.00129843355692416</v>
       </c>
       <c r="T17">
-        <v>0.004443489660509364</v>
+        <v>0.001108595749762239</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H18">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I18">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J18">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N18">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O18">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P18">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q18">
-        <v>255.3503600299623</v>
+        <v>5.872346434084001</v>
       </c>
       <c r="R18">
-        <v>1532.102160179774</v>
+        <v>52.85111790675601</v>
       </c>
       <c r="S18">
-        <v>0.03621500905318271</v>
+        <v>0.0008933957057662345</v>
       </c>
       <c r="T18">
-        <v>0.02870073370472074</v>
+        <v>0.001144164840380199</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H19">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I19">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J19">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N19">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O19">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P19">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q19">
-        <v>218.5944284623685</v>
+        <v>29.255776976192</v>
       </c>
       <c r="R19">
-        <v>1311.566570774211</v>
+        <v>263.301992785728</v>
       </c>
       <c r="S19">
-        <v>0.03100210708459968</v>
+        <v>0.00445085892202843</v>
       </c>
       <c r="T19">
-        <v>0.02456946009356676</v>
+        <v>0.005700179948491881</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H20">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I20">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J20">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N20">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O20">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P20">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q20">
-        <v>92.71155437022666</v>
+        <v>470.700533061455</v>
       </c>
       <c r="R20">
-        <v>556.26932622136</v>
+        <v>1882.80213224582</v>
       </c>
       <c r="S20">
-        <v>0.01314879595414876</v>
+        <v>0.07161052905499717</v>
       </c>
       <c r="T20">
-        <v>0.0104205438873021</v>
+        <v>0.04076046234081944</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H21">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I21">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J21">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O21">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P21">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q21">
-        <v>23.60496938612889</v>
+        <v>123.4936966902207</v>
       </c>
       <c r="R21">
-        <v>212.44472447516</v>
+        <v>740.9621801413241</v>
       </c>
       <c r="S21">
-        <v>0.003347769628828608</v>
+        <v>0.01878784563388087</v>
       </c>
       <c r="T21">
-        <v>0.003979708156940976</v>
+        <v>0.01604096390288064</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H22">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I22">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J22">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N22">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O22">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P22">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q22">
-        <v>70.87410631108668</v>
+        <v>253.5037014050974</v>
       </c>
       <c r="R22">
-        <v>637.86695679978</v>
+        <v>1521.022208430584</v>
       </c>
       <c r="S22">
-        <v>0.01005170465156605</v>
+        <v>0.03856705675888604</v>
       </c>
       <c r="T22">
-        <v>0.01194910505445861</v>
+        <v>0.03292835045408287</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H23">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I23">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J23">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N23">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O23">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P23">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q23">
-        <v>16.64977688973</v>
+        <v>125.559919541324</v>
       </c>
       <c r="R23">
-        <v>99.89866133837999</v>
+        <v>502.239678165296</v>
       </c>
       <c r="S23">
-        <v>0.002361350971756188</v>
+        <v>0.01910219265734964</v>
       </c>
       <c r="T23">
-        <v>0.001871392751116869</v>
+        <v>0.01087290116009336</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H24">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I24">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J24">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N24">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O24">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P24">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q24">
-        <v>71.69452378867112</v>
+        <v>86.39232430213968</v>
       </c>
       <c r="R24">
-        <v>645.25071409804</v>
+        <v>518.3539458128381</v>
       </c>
       <c r="S24">
-        <v>0.01016806018117886</v>
+        <v>0.01314338866227582</v>
       </c>
       <c r="T24">
-        <v>0.01208742432419502</v>
+        <v>0.01122175619289176</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H25">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I25">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J25">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N25">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O25">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P25">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q25">
-        <v>61.37458921000667</v>
+        <v>430.4028382195573</v>
       </c>
       <c r="R25">
-        <v>552.37130289006</v>
+        <v>2582.417029317344</v>
       </c>
       <c r="S25">
-        <v>0.00870443771301108</v>
+        <v>0.06547979614811866</v>
       </c>
       <c r="T25">
-        <v>0.01034752256240996</v>
+        <v>0.05590630596228661</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H26">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I26">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J26">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N26">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O26">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P26">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q26">
-        <v>59.96927198207865</v>
+        <v>13.64515177608166</v>
       </c>
       <c r="R26">
-        <v>359.815631892472</v>
+        <v>81.87091065649</v>
       </c>
       <c r="S26">
-        <v>0.00850512890402395</v>
+        <v>0.002075919760204237</v>
       </c>
       <c r="T26">
-        <v>0.006740394277970283</v>
+        <v>0.00177240938570743</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H27">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I27">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J27">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O27">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P27">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q27">
-        <v>15.26856969297022</v>
+        <v>3.579962452490889</v>
       </c>
       <c r="R27">
-        <v>137.417127236732</v>
+        <v>32.219662072418</v>
       </c>
       <c r="S27">
-        <v>0.00216546156267485</v>
+        <v>0.0005446414168101798</v>
       </c>
       <c r="T27">
-        <v>0.002574222840875307</v>
+        <v>0.0006975179707122079</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H28">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I28">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J28">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N28">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O28">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P28">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q28">
-        <v>45.84400063970066</v>
+        <v>7.348826352443112</v>
       </c>
       <c r="R28">
-        <v>412.596005757306</v>
+        <v>66.13943717198801</v>
       </c>
       <c r="S28">
-        <v>0.006501815380272281</v>
+        <v>0.001118021557377434</v>
       </c>
       <c r="T28">
-        <v>0.007729124334295285</v>
+        <v>0.001431841398477785</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H29">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I29">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J29">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N29">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O29">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P29">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q29">
-        <v>10.769693222421</v>
+        <v>3.639860248278667</v>
       </c>
       <c r="R29">
-        <v>64.618159334526</v>
+        <v>21.839161489672</v>
       </c>
       <c r="S29">
-        <v>0.00152740938960968</v>
+        <v>0.0005537540320385779</v>
       </c>
       <c r="T29">
-        <v>0.001210486240246428</v>
+        <v>0.0004727922834849585</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H30">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I30">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J30">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N30">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O30">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P30">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q30">
-        <v>46.37467709298977</v>
+        <v>2.504429663004556</v>
       </c>
       <c r="R30">
-        <v>417.372093836908</v>
+        <v>22.539866967041</v>
       </c>
       <c r="S30">
-        <v>0.006577078452381993</v>
+        <v>0.0003810140855000249</v>
       </c>
       <c r="T30">
-        <v>0.007818594368138761</v>
+        <v>0.0004879617368933403</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.391799</v>
+      </c>
+      <c r="I31">
+        <v>0.006571546613249707</v>
+      </c>
+      <c r="J31">
+        <v>0.007293527128937232</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>95.53593066666667</v>
+      </c>
+      <c r="N31">
+        <v>286.607792</v>
+      </c>
+      <c r="O31">
+        <v>0.2888506881305636</v>
+      </c>
+      <c r="P31">
+        <v>0.3333098390786051</v>
+      </c>
+      <c r="Q31">
+        <v>12.47696069975644</v>
+      </c>
+      <c r="R31">
+        <v>112.292646297808</v>
+      </c>
+      <c r="S31">
+        <v>0.001898195761319253</v>
+      </c>
+      <c r="T31">
+        <v>0.002431004353661509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.115013</v>
+      </c>
+      <c r="H32">
+        <v>0.345039</v>
+      </c>
+      <c r="I32">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J32">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>104.480755</v>
+      </c>
+      <c r="N32">
+        <v>208.96151</v>
+      </c>
+      <c r="O32">
+        <v>0.3158951586858897</v>
+      </c>
+      <c r="P32">
+        <v>0.2430112830697999</v>
+      </c>
+      <c r="Q32">
+        <v>12.016645074815</v>
+      </c>
+      <c r="R32">
+        <v>72.09987044888999</v>
+      </c>
+      <c r="S32">
+        <v>0.001828165151368711</v>
+      </c>
+      <c r="T32">
+        <v>0.001560877802227943</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.115013</v>
+      </c>
+      <c r="H33">
+        <v>0.345039</v>
+      </c>
+      <c r="I33">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J33">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>27.41172733333334</v>
+      </c>
+      <c r="N33">
+        <v>82.23518200000001</v>
+      </c>
+      <c r="O33">
+        <v>0.08287872686044118</v>
+      </c>
+      <c r="P33">
+        <v>0.09563520617408686</v>
+      </c>
+      <c r="Q33">
+        <v>3.152704995788667</v>
+      </c>
+      <c r="R33">
+        <v>28.374344962098</v>
+      </c>
+      <c r="S33">
+        <v>0.0004796401466434769</v>
+      </c>
+      <c r="T33">
+        <v>0.0006142713562223729</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.115013</v>
+      </c>
+      <c r="H34">
+        <v>0.345039</v>
+      </c>
+      <c r="I34">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J34">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>56.26987066666667</v>
+      </c>
+      <c r="N34">
+        <v>168.809612</v>
+      </c>
+      <c r="O34">
+        <v>0.170130659215481</v>
+      </c>
+      <c r="P34">
+        <v>0.1963167303233743</v>
+      </c>
+      <c r="Q34">
+        <v>6.471766634985333</v>
+      </c>
+      <c r="R34">
+        <v>58.245899714868</v>
+      </c>
+      <c r="S34">
+        <v>0.0009845891391656242</v>
+      </c>
+      <c r="T34">
+        <v>0.001260955551926821</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.115013</v>
+      </c>
+      <c r="H35">
+        <v>0.345039</v>
+      </c>
+      <c r="I35">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J35">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>27.870364</v>
+      </c>
+      <c r="N35">
+        <v>55.740728</v>
+      </c>
+      <c r="O35">
+        <v>0.08426540426907815</v>
+      </c>
+      <c r="P35">
+        <v>0.06482354492233867</v>
+      </c>
+      <c r="Q35">
+        <v>3.205454174732</v>
+      </c>
+      <c r="R35">
+        <v>19.232725048392</v>
+      </c>
+      <c r="S35">
+        <v>0.0004876651994021396</v>
+      </c>
+      <c r="T35">
+        <v>0.0004163659853684327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H31">
-        <v>1.671026</v>
-      </c>
-      <c r="I31">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J31">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>71.272429</v>
-      </c>
-      <c r="N31">
-        <v>213.817287</v>
-      </c>
-      <c r="O31">
-        <v>0.1821693528222338</v>
-      </c>
-      <c r="P31">
-        <v>0.2042716462128862</v>
-      </c>
-      <c r="Q31">
-        <v>39.69936064738467</v>
-      </c>
-      <c r="R31">
-        <v>357.294245826462</v>
-      </c>
-      <c r="S31">
-        <v>0.005630353155099928</v>
-      </c>
-      <c r="T31">
-        <v>0.006693161376713323</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.115013</v>
+      </c>
+      <c r="H36">
+        <v>0.345039</v>
+      </c>
+      <c r="I36">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J36">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>19.17638633333334</v>
+      </c>
+      <c r="N36">
+        <v>57.52915900000001</v>
+      </c>
+      <c r="O36">
+        <v>0.05797936283854631</v>
+      </c>
+      <c r="P36">
+        <v>0.06690339643179515</v>
+      </c>
+      <c r="Q36">
+        <v>2.205533721355667</v>
+      </c>
+      <c r="R36">
+        <v>19.849803492201</v>
+      </c>
+      <c r="S36">
+        <v>0.0003355412317204564</v>
+      </c>
+      <c r="T36">
+        <v>0.0004297250113857903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.115013</v>
+      </c>
+      <c r="H37">
+        <v>0.345039</v>
+      </c>
+      <c r="I37">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J37">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>95.53593066666667</v>
+      </c>
+      <c r="N37">
+        <v>286.607792</v>
+      </c>
+      <c r="O37">
+        <v>0.2888506881305636</v>
+      </c>
+      <c r="P37">
+        <v>0.3333098390786051</v>
+      </c>
+      <c r="Q37">
+        <v>10.98787399376533</v>
+      </c>
+      <c r="R37">
+        <v>98.890865943888</v>
+      </c>
+      <c r="S37">
+        <v>0.001671651962587535</v>
+      </c>
+      <c r="T37">
+        <v>0.002140871495800177</v>
       </c>
     </row>
   </sheetData>
